--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -25,11 +25,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>及噢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -419,10 +419,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>564220</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
